--- a/output/2023-10_Audit100_Pathologist-I.xlsx
+++ b/output/2023-10_Audit100_Pathologist-I.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="108">
   <si>
     <t xml:space="preserve">accession</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">code</t>
   </si>
   <si>
-    <t xml:space="preserve">12830154</t>
+    <t xml:space="preserve">12830769</t>
   </si>
   <si>
     <t xml:space="preserve">Barner</t>
@@ -49,111 +49,6 @@
     <t xml:space="preserve">I</t>
   </si>
   <si>
-    <t xml:space="preserve">12830211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12829270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12831412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12831410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12831599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12831606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12831040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12831095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12829339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12829829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12831143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12828997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12831036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12829820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12831100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12829201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12831863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12829320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12829872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12829831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12830769</t>
-  </si>
-  <si>
     <t xml:space="preserve">12832141</t>
   </si>
   <si>
@@ -197,6 +92,258 @@
   </si>
   <si>
     <t xml:space="preserve">12831827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12830144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12831839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12832168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12830559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12834324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12833806</t>
   </si>
 </sst>
 </file>
@@ -314,7 +461,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -351,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205.71875</v>
+        <v>45208.7013888889</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>7</v>
@@ -368,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205.71875</v>
+        <v>45208.7055555556</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>7</v>
@@ -379,13 +526,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205.71875</v>
+        <v>45208.7131944444</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>7</v>
@@ -396,13 +543,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205.71875</v>
+        <v>45209.35625</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>7</v>
@@ -413,13 +560,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205.71875</v>
+        <v>45209.3673611111</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>7</v>
@@ -430,13 +577,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205.71875</v>
+        <v>45209.375</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>7</v>
@@ -447,13 +594,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205.71875</v>
+        <v>45209.375</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>7</v>
@@ -464,13 +611,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205.71875</v>
+        <v>45209.4951388889</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>7</v>
@@ -481,13 +628,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205.71875</v>
+        <v>45209.5111111111</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>7</v>
@@ -498,13 +645,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205.71875</v>
+        <v>45209.5145833333</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>7</v>
@@ -515,13 +662,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205.71875</v>
+        <v>45209.5222222222</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>7</v>
@@ -532,13 +679,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205.7291666667</v>
+        <v>45209.5423611111</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>7</v>
@@ -549,13 +696,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205.7298611111</v>
+        <v>45209.5423611111</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>7</v>
@@ -566,13 +713,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208.3756944445</v>
+        <v>45209.5465277778</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>7</v>
@@ -583,13 +730,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208.3756944445</v>
+        <v>45209.5465277778</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>7</v>
@@ -600,13 +747,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208.3791666667</v>
+        <v>45209.5465277778</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>7</v>
@@ -617,13 +764,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208.3791666667</v>
+        <v>45209.5506944445</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>7</v>
@@ -634,13 +781,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208.3791666667</v>
+        <v>45209.5590277778</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>7</v>
@@ -651,13 +798,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208.3791666667</v>
+        <v>45209.6291666667</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>7</v>
@@ -668,13 +815,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208.3826388889</v>
+        <v>45209.6291666667</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>7</v>
@@ -685,13 +832,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208.3826388889</v>
+        <v>45209.6326388889</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>7</v>
@@ -702,13 +849,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208.3826388889</v>
+        <v>45209.6527777778</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>7</v>
@@ -719,13 +866,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208.3826388889</v>
+        <v>45209.6527777778</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>7</v>
@@ -736,13 +883,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208.3826388889</v>
+        <v>45209.6527777778</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>7</v>
@@ -753,13 +900,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208.3833333333</v>
+        <v>45209.6527777778</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>7</v>
@@ -770,13 +917,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208.3833333333</v>
+        <v>45209.6569444444</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>7</v>
@@ -787,13 +934,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208.40625</v>
+        <v>45209.6604166667</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>7</v>
@@ -804,13 +951,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208.40625</v>
+        <v>45209.6604166667</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>7</v>
@@ -821,13 +968,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208.40625</v>
+        <v>45209.6638888889</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>7</v>
@@ -838,13 +985,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208.4069444445</v>
+        <v>45209.6645833333</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>7</v>
@@ -855,13 +1002,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208.41875</v>
+        <v>45209.6645833333</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>7</v>
@@ -872,13 +1019,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208.4194444444</v>
+        <v>45209.6680555556</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>7</v>
@@ -889,13 +1036,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208.4229166667</v>
+        <v>45209.6680555556</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>7</v>
@@ -906,13 +1053,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208.4229166667</v>
+        <v>45209.6680555556</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>7</v>
@@ -923,13 +1070,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208.4229166667</v>
+        <v>45209.6680555556</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>7</v>
@@ -940,13 +1087,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208.4270833333</v>
+        <v>45209.6715277778</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>7</v>
@@ -957,13 +1104,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208.4270833333</v>
+        <v>45209.6715277778</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>7</v>
@@ -974,13 +1121,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208.4270833333</v>
+        <v>45209.6791666667</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>7</v>
@@ -991,13 +1138,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208.44375</v>
+        <v>45209.6826388889</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>7</v>
@@ -1008,13 +1155,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208.44375</v>
+        <v>45209.6826388889</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>7</v>
@@ -1025,13 +1172,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208.4479166667</v>
+        <v>45209.69375</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>7</v>
@@ -1042,13 +1189,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208.4479166667</v>
+        <v>45209.6972222222</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>7</v>
@@ -1059,13 +1206,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208.4479166667</v>
+        <v>45209.7013888889</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>7</v>
@@ -1076,13 +1223,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208.4520833333</v>
+        <v>45210.4555555556</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>7</v>
@@ -1093,13 +1240,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208.4652777778</v>
+        <v>45210.4555555556</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>7</v>
@@ -1110,13 +1257,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208.5215277778</v>
+        <v>45210.4881944445</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>7</v>
@@ -1127,13 +1274,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208.5215277778</v>
+        <v>45210.4881944445</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>7</v>
@@ -1144,13 +1291,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208.5215277778</v>
+        <v>45210.4881944445</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>7</v>
@@ -1161,13 +1308,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208.5215277778</v>
+        <v>45210.4881944445</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>7</v>
@@ -1178,13 +1325,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208.5215277778</v>
+        <v>45210.5305555556</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>7</v>
@@ -1195,13 +1342,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208.5215277778</v>
+        <v>45210.5388888889</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>7</v>
@@ -1212,13 +1359,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208.5215277778</v>
+        <v>45210.5861111111</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>7</v>
@@ -1229,13 +1376,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208.5215277778</v>
+        <v>45210.5861111111</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>7</v>
@@ -1246,13 +1393,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208.6388888889</v>
+        <v>45210.63125</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>7</v>
@@ -1263,13 +1410,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208.6930555556</v>
+        <v>45210.6381944444</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>7</v>
@@ -1280,13 +1427,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208.6930555556</v>
+        <v>45210.6763888889</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>7</v>
@@ -1297,13 +1444,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208.6930555556</v>
+        <v>45210.7104166667</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>7</v>
@@ -1314,13 +1461,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208.6930555556</v>
+        <v>45210.7104166667</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>7</v>
@@ -1331,13 +1478,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208.6972222222</v>
+        <v>45210.7111111111</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>7</v>
@@ -1348,13 +1495,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208.6972222222</v>
+        <v>45210.7222222222</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>7</v>
@@ -1365,13 +1512,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208.6972222222</v>
+        <v>45210.7506944444</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>7</v>
@@ -1382,13 +1529,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208.6972222222</v>
+        <v>45211.3555555556</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>7</v>
@@ -1399,13 +1546,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208.6972222222</v>
+        <v>45211.3555555556</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>7</v>
@@ -1416,13 +1563,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208.6972222222</v>
+        <v>45211.3555555556</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>7</v>
@@ -1433,13 +1580,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208.6972222222</v>
+        <v>45211.3590277778</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>7</v>
@@ -1450,13 +1597,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208.6972222222</v>
+        <v>45211.3743055556</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>7</v>
@@ -1467,13 +1614,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208.6972222222</v>
+        <v>45211.3777777778</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>7</v>
@@ -1484,13 +1631,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208.6979166667</v>
+        <v>45211.3930555556</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>7</v>
@@ -1501,13 +1648,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208.7013888889</v>
+        <v>45211.4118055556</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>7</v>
@@ -1518,13 +1665,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208.7055555556</v>
+        <v>45211.4576388889</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>7</v>
@@ -1535,13 +1682,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208.7131944444</v>
+        <v>45211.4576388889</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>7</v>
@@ -1552,13 +1699,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208.7131944444</v>
+        <v>45211.4618055555</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>7</v>
@@ -1569,13 +1716,13 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208.7131944444</v>
+        <v>45211.4618055555</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>7</v>
@@ -1586,13 +1733,13 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208.7131944444</v>
+        <v>45211.4618055555</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>7</v>
@@ -1603,13 +1750,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208.7131944444</v>
+        <v>45211.4659722222</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>7</v>
@@ -1620,13 +1767,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208.7131944444</v>
+        <v>45211.4659722222</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>7</v>
@@ -1637,13 +1784,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208.7131944444</v>
+        <v>45211.4659722222</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>7</v>
@@ -1654,13 +1801,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45209.35625</v>
+        <v>45211.4923611111</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>7</v>
@@ -1671,13 +1818,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45209.3673611111</v>
+        <v>45211.5423611111</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>7</v>
@@ -1688,13 +1835,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45209.3673611111</v>
+        <v>45211.5465277778</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>7</v>
@@ -1705,13 +1852,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45209.375</v>
+        <v>45211.5576388889</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>7</v>
@@ -1722,13 +1869,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45209.375</v>
+        <v>45211.5930555556</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>7</v>
@@ -1739,13 +1886,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45209.375</v>
+        <v>45211.5930555556</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>7</v>
@@ -1756,13 +1903,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45209.375</v>
+        <v>45211.5965277778</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>7</v>
@@ -1773,13 +1920,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45209.4951388889</v>
+        <v>45211.6090277778</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>7</v>
@@ -1790,13 +1937,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45209.4951388889</v>
+        <v>45211.6236111111</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>7</v>
@@ -1807,13 +1954,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45209.4951388889</v>
+        <v>45211.6236111111</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>7</v>
@@ -1824,13 +1971,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45209.4951388889</v>
+        <v>45211.6236111111</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>7</v>
@@ -1841,13 +1988,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45209.4951388889</v>
+        <v>45211.6277777778</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>7</v>
@@ -1858,13 +2005,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45209.4951388889</v>
+        <v>45211.6277777778</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>7</v>
@@ -1875,13 +2022,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45209.4951388889</v>
+        <v>45211.6277777778</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>7</v>
@@ -1892,13 +2039,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45209.4951388889</v>
+        <v>45211.63125</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>7</v>
@@ -1909,13 +2056,13 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45209.5111111111</v>
+        <v>45211.6506944444</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>7</v>
@@ -1926,13 +2073,13 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45209.5145833333</v>
+        <v>45211.6506944444</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>7</v>
@@ -1943,13 +2090,13 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45209.5222222222</v>
+        <v>45211.6541666667</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>7</v>
@@ -1960,13 +2107,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45209.5423611111</v>
+        <v>45211.6541666667</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>7</v>
@@ -1977,13 +2124,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45209.5423611111</v>
+        <v>45211.6770833333</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>7</v>
@@ -1994,13 +2141,13 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45209.5465277778</v>
+        <v>45211.6770833333</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>7</v>
@@ -2011,13 +2158,13 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45209.5465277778</v>
+        <v>45211.6777777778</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>7</v>
@@ -2028,13 +2175,13 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45209.5465277778</v>
+        <v>45211.6923611111</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>7</v>

--- a/output/2023-10_Audit100_Pathologist-I.xlsx
+++ b/output/2023-10_Audit100_Pathologist-I.xlsx
@@ -2199,4 +2199,281 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010055E7AF632A704D4CBB1BD9FA14B19970" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a142d422042ab65c5cf1bdc7db96e15">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="edae88a8-d9dc-4074-a55b-fb97cb2cd74d" xmlns:ns3="852f286e-3e14-48be-b416-81218d12f978" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c40a8bb7e01840c9a3629736cac3e4c1" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="edae88a8-d9dc-4074-a55b-fb97cb2cd74d"/>
+    <xsd:import namespace="852f286e-3e14-48be-b416-81218d12f978"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="edae88a8-d9dc-4074-a55b-fb97cb2cd74d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c6d7f816-bc26-4675-b66e-019c6d6df9c2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="852f286e-3e14-48be-b416-81218d12f978" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{470e1751-435f-4e7f-a343-fe3c661a44ef}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="852f286e-3e14-48be-b416-81218d12f978">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B043A223-9787-448C-AB7E-F7959FDD4AD6}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF196FDB-563E-4132-864F-69A6B3799295}"/>
 </file>